--- a/src/static/building2.xlsx
+++ b/src/static/building2.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet99" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="建物区分" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
@@ -402,7 +402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,78 +422,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>戸建住宅</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>共同住宅</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>事業所併用住宅</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>事業所</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>その他建物</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>建物以外</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/static/building2.xlsx
+++ b/src/static/building2.xlsx
@@ -402,7 +402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,6 +422,78 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>戸建住宅</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>共同住宅</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>事業所併用住宅</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>事業所</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>その他建物</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>建物以外</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
